--- a/testCases/campaign.xlsx
+++ b/testCases/campaign.xlsx
@@ -19,10 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="126">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
@@ -38,7 +38,7 @@
   </si>
   <si>
     <t>/api/User/login</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>后置条件</t>
@@ -48,7 +48,7 @@
   </si>
   <si>
     <t>Active</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
@@ -64,7 +64,7 @@
   </si>
   <si>
     <t>Host</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Request Headers</t>
@@ -83,123 +83,123 @@
   </si>
   <si>
     <t>setup</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>am_host</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>data.password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>teardown</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>代码拆分接口测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>token=data.token</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/saveRmosCampaign</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>创建campaign</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campaign_name=request.json.name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${deleteCampaignByName($token,$campaign_name)}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Templet/getCampCardList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取campaignCardList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取campaignCardDetail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Templet/campCardDetail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>card_id=data.0.card_list.0.id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>json.id=$card_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>rmos_id=data.list.0.id;rmos_name=data.list.0.name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Templet/getCampaignPage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,7 +216,7 @@
       </rPr>
       <t>mpaignPage</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -244,31 +244,31 @@
       </rPr>
       <t>s_name</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosFilterList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosFilterList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosCampaignInfo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosCampaignInfo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,59 +285,425 @@
       </rPr>
       <t>son.rmos_campaign_id=$rmos_id</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosCampaignDetail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosCampaignDetail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getCampaignReport</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取CampaignReport</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>json.campaign_id=$rmos_id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取DmpList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getDmpList</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取CampaignName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getCampaignName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/setCampaignHeader</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置CampaignHeader</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取CampaignHeader</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/getCampaignHeader</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_list=request.json.campaign_header</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 = code;$header_list </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data.campHeader</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取UserBrandList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/getUserBrandList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/getUserProductList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取UserProductList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>file=test.xlsx</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/uploadSpotPlanExcel</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/uploadCreativeTrackingCodeExcel</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadSpotPlanExcel</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadCreativeTrackingCodeExcel</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getUserConfig</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campainListPage=request.json.user_config.campainListPage</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;$campainListPage = data.campainListPage</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>setUserConfig</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/setUserConfig</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserConfig</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/setListColumn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>setListColumn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getListColumn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getListColumn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olumn_list=request.json.column_list</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0 = code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;$column_list = data.column_list</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getOrderStrategyList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getOrderStrategyInfo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderStrategyList</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderStrategyInfo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>son.order_id=$order_id</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTagPermission</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/checkTagPermission</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Base/market</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getHistoryData</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRealtimeData</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getRealtimeData</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>son.order_id=$order_id</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHistoryData</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>son.order_id=$order_id</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMiaozhenImpSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getMiaozhenImpSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getMiaozhenClickSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmasterImpSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getAdmasterImpSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAdmasterClickSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/TD/Campaign/Campaign/getAdmasterClickSaikuHistoryReport</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rder_id=data.data.0.id</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,16 +832,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -487,13 +853,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,10 +868,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
@@ -520,8 +898,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -805,20 +1186,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.4140625" customWidth="1"/>
-    <col min="2" max="2" width="22.9140625" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.4140625" customWidth="1"/>
     <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,7 +1234,7 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -870,7 +1251,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="str">
         <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
@@ -884,7 +1265,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="str">
         <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
@@ -898,7 +1279,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="str">
         <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
@@ -912,7 +1293,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -929,7 +1310,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="str">
         <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
         <v>数据库：</v>
@@ -943,7 +1324,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="str">
         <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
         <v>库名称：</v>
@@ -957,7 +1338,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="str">
         <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
         <v>SQL：</v>
@@ -1055,7 +1436,7 @@
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="9"/>
@@ -1074,7 +1455,7 @@
       <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1352,11 +1733,537 @@
       <c r="F26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>53</v>
+      <c r="G26" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>12</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>14</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>15</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>16</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>17</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>18</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>19</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>21</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>22</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>23</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>24</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>25</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>26</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>27</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>28</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>29</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>30</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>31</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1365,7 +2272,7 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
       <formula1>"接口调用,数据库操作"</formula1>
@@ -1373,7 +2280,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I46">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testCases/campaign.xlsx
+++ b/testCases/campaign.xlsx
@@ -22,87 +22,127 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="126">
   <si>
     <t>名称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>操作方式：</t>
+  </si>
+  <si>
+    <t>接口调用</t>
+  </si>
+  <si>
+    <t>/api/User/login</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置条件</t>
+  </si>
+  <si>
+    <t>数据库操作</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>API Name</t>
+  </si>
+  <si>
+    <t>Host</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Headers</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Check Point</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>setup</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>am_host</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.password=${gen_md5(Qsq522439539)}</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码拆分接口测试</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作方式：</t>
-  </si>
-  <si>
-    <t>接口调用</t>
-  </si>
-  <si>
-    <t>/api/User/login</t>
+    <t>token=data.token</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/saveRmosCampaign</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建campaign</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign_name=request.json.name</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>后置条件</t>
-  </si>
-  <si>
-    <t>数据库操作</t>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>API Name</t>
-  </si>
-  <si>
-    <t>Host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Headers</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Check Point</t>
-  </si>
-  <si>
-    <t>Correlation</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>setup</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>am_host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>data.password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>teardown</t>
+    <t>${deleteCampaignByName($token,$campaign_name)}</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Templet/getCampCardList</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -118,88 +158,48 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>代码拆分接口测试</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>token=data.token</t>
+    <t>获取campaignCardList</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>/apicm/Page/Campaign/Campaign/saveRmosCampaign</t>
+    <t>获取campaignCardDetail</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Templet/campCardDetail</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id=data.0.card_list.0.id</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>创建campaign</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campaign_name=request.json.name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>${deleteCampaignByName($token,$campaign_name)}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/Campaign/Templet/getCampCardList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_host</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>json.id=$card_id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取RmosList</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Campaign/getRmosList</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取campaignCardList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取campaignCardDetail</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/Campaign/Templet/campCardDetail</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_id=data.0.card_list.0.id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>json.id=$card_id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取RmosList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/Campaign/Campaign/getRmosList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = code</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>rmos_id=data.list.0.id;rmos_name=data.list.0.name</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Templet/getCampaignPage</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,7 +216,7 @@
       </rPr>
       <t>mpaignPage</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -244,31 +244,31 @@
       </rPr>
       <t>s_name</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosFilterList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosFilterList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosCampaignInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosCampaignInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -285,75 +285,75 @@
       </rPr>
       <t>son.rmos_campaign_id=$rmos_id</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getRmosCampaignDetail</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取RmosCampaignDetail</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getCampaignReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取CampaignReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>json.campaign_id=$rmos_id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取DmpList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getDmpList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取CampaignName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getCampaignName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/setCampaignHeader</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0 = code</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置CampaignHeader</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取CampaignHeader</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getCampaignHeader</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>header_list=request.json.campaign_header</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -381,87 +381,87 @@
       </rPr>
       <t xml:space="preserve"> data.campHeader</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取UserBrandList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getUserBrandList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/getUserProductList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取UserProductList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>file=test.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/uploadSpotPlanExcel</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Campaign/uploadCreativeTrackingCodeExcel</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>uploadSpotPlanExcel</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>uploadCreativeTrackingCodeExcel</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getUserConfig</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>campainListPage=request.json.user_config.campainListPage</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0 = code;$campainListPage = data.campainListPage</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>setUserConfig</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/setUserConfig</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getUserConfig</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/setListColumn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>setListColumn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getListColumn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getListColumn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -478,7 +478,7 @@
       </rPr>
       <t>olumn_list=request.json.column_list</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -495,23 +495,23 @@
       </rPr>
       <t>;$column_list = data.column_list</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getOrderStrategyList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getOrderStrategyInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getOrderStrategyList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getOrderStrategyInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -528,47 +528,47 @@
       </rPr>
       <t>son.order_id=$order_id</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>checkTagPermission</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/checkTagPermission</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>market</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Base/market</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getHistoryData</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getRealtimeData</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getRealtimeData</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,19 +585,19 @@
       </rPr>
       <t>son.order_id=$order_id</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getHistoryData</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,35 +614,35 @@
       </rPr>
       <t>son.order_id=$order_id</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getMiaozhenImpSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getMiaozhenImpSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getMiaozhenClickSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getAdmasterImpSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getAdmasterImpSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>getAdmasterClickSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>/apicm/TD/Campaign/Campaign/getAdmasterClickSaikuHistoryReport</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -659,19 +659,27 @@
       </rPr>
       <t>rder_id=data.data.0.id</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,16 +840,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -853,13 +861,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,10 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
@@ -898,11 +909,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1188,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1242,7 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1251,7 +1259,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="str">
         <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
@@ -1265,7 +1273,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="str">
         <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
@@ -1279,7 +1287,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="str">
         <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
@@ -1293,7 +1301,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1310,7 +1318,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="str">
         <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
         <v>数据库：</v>
@@ -1324,7 +1332,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="str">
         <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
         <v>库名称：</v>
@@ -1338,7 +1346,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="str">
         <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
         <v>SQL：</v>
@@ -1993,7 +2001,7 @@
         <v>82</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H36" s="16"/>
@@ -2005,10 +2013,10 @@
       <c r="A37" s="15">
         <v>22</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -2021,7 +2029,7 @@
       <c r="G37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="20" t="s">
         <v>125</v>
       </c>
       <c r="I37" s="9" t="s">
@@ -2032,10 +2040,10 @@
       <c r="A38" s="15">
         <v>23</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2044,7 +2052,7 @@
       <c r="E38" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>102</v>
       </c>
       <c r="G38" s="16" t="s">
@@ -2081,26 +2089,26 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>25</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="9" t="s">
         <v>9</v>
       </c>
@@ -2272,7 +2280,7 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
       <formula1>"接口调用,数据库操作"</formula1>

--- a/testCases/campaign.xlsx
+++ b/testCases/campaign.xlsx
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>am_host</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>data.password=${gen_md5(Qsq522439539)}</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -659,6 +655,10 @@
       </rPr>
       <t>rder_id=data.data.0.id</t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.username=$username;data.password=$password;data.domain=$am_host</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1206,7 @@
     <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.4140625" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="6" max="6" width="70.58203125" customWidth="1"/>
     <col min="7" max="7" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1427,25 +1427,25 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1461,23 +1461,23 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>9</v>
@@ -1488,23 +1488,23 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>9</v>
@@ -1515,22 +1515,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="9" t="s">
@@ -1542,23 +1542,23 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>9</v>
@@ -1569,22 +1569,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="G20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9" t="s">
@@ -1596,20 +1596,20 @@
         <v>6</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="9" t="s">
@@ -1621,22 +1621,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="9" t="s">
@@ -1648,22 +1648,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="9" t="s">
@@ -1675,22 +1675,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="G24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="9" t="s">
@@ -1702,20 +1702,20 @@
         <v>10</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="9" t="s">
@@ -1727,22 +1727,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="9" t="s">
@@ -1754,23 +1754,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>9</v>
@@ -1781,20 +1781,20 @@
         <v>13</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="9" t="s">
@@ -1806,20 +1806,20 @@
         <v>14</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="D29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="9" t="s">
@@ -1831,20 +1831,20 @@
         <v>15</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="9" t="s">
@@ -1856,22 +1856,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="F31" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="9" t="s">
@@ -1883,22 +1883,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="9" t="s">
@@ -1910,23 +1910,23 @@
         <v>18</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>9</v>
@@ -1937,20 +1937,20 @@
         <v>19</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="9" t="s">
@@ -1962,23 +1962,23 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>9</v>
@@ -1989,20 +1989,20 @@
         <v>21</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="D36" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="9" t="s">
@@ -2014,23 +2014,23 @@
         <v>22</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>9</v>
@@ -2041,22 +2041,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="G38" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="9" t="s">
@@ -2068,20 +2068,20 @@
         <v>24</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="D39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="9" t="s">
@@ -2093,20 +2093,20 @@
         <v>25</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E40" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="9" t="s">
@@ -2118,22 +2118,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="F41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="G41" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="9" t="s">
@@ -2145,22 +2145,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="F42" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="G42" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="9" t="s">
@@ -2172,22 +2172,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="D43" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="G43" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="9" t="s">
@@ -2199,22 +2199,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="F44" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="G44" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="9" t="s">
@@ -2226,22 +2226,22 @@
         <v>30</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="D45" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="F45" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="G45" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="9" t="s">
@@ -2253,22 +2253,22 @@
         <v>31</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="D46" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="G46" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="9" t="s">
